--- a/mbs-perturbation/greedy/randomForest/nearmiss/greedy-randomForest-nearmiss-results.xlsx
+++ b/mbs-perturbation/greedy/randomForest/nearmiss/greedy-randomForest-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.72</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65</v>
+        <v>0.5364102564102564</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
   </sheetData>
